--- a/app/data/absenteeism_data_34.xlsx
+++ b/app/data/absenteeism_data_34.xlsx
@@ -476,69 +476,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>47297</v>
+        <v>86449</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Guilherme Fogaça</t>
+          <t>Sra. Helena Silva</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45094</v>
+        <v>45081</v>
       </c>
       <c r="G2" t="n">
-        <v>9892.309999999999</v>
+        <v>7280.22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>28087</v>
+        <v>87110</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>João Vitor Peixoto</t>
+          <t>Helena da Mota</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45106</v>
+        <v>45086</v>
       </c>
       <c r="G3" t="n">
-        <v>2979.68</v>
+        <v>2828.96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>61419</v>
+        <v>69674</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Caio Ramos</t>
+          <t>Isadora Ferreira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,118 +548,118 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45103</v>
+        <v>45091</v>
       </c>
       <c r="G4" t="n">
-        <v>2844.59</v>
+        <v>3330.47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>51544</v>
+        <v>23911</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Isadora Nunes</t>
+          <t>Juliana Jesus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45085</v>
+        <v>45098</v>
       </c>
       <c r="G5" t="n">
-        <v>4088.36</v>
+        <v>8593.27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>74041</v>
+        <v>49118</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Isabel Vieira</t>
+          <t>Igor Costa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45094</v>
+        <v>45078</v>
       </c>
       <c r="G6" t="n">
-        <v>7591.23</v>
+        <v>4932.81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>51503</v>
+        <v>3555</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Davi Lucca Cardoso</t>
+          <t>Nathan da Mata</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45096</v>
+        <v>45102</v>
       </c>
       <c r="G7" t="n">
-        <v>8623.26</v>
+        <v>8658.65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>42904</v>
+        <v>5708</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Alice Pires</t>
+          <t>Lucas Gabriel da Luz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -671,24 +671,24 @@
         <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="G8" t="n">
-        <v>2523.29</v>
+        <v>8199.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>33087</v>
+        <v>19364</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Henrique Azevedo</t>
+          <t>Dra. Olivia Costela</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,27 +697,27 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45083</v>
+        <v>45097</v>
       </c>
       <c r="G9" t="n">
-        <v>2920.99</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>56350</v>
+        <v>87625</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Natália Caldeira</t>
+          <t>Ana Beatriz Freitas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -729,39 +729,39 @@
         <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45084</v>
+        <v>45088</v>
       </c>
       <c r="G10" t="n">
-        <v>10387.25</v>
+        <v>3041.28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>49947</v>
+        <v>68104</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>João Gabriel Sales</t>
+          <t>Luiz Gustavo Nascimento</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45082</v>
+        <v>45085</v>
       </c>
       <c r="G11" t="n">
-        <v>4365.12</v>
+        <v>3653</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_34.xlsx
+++ b/app/data/absenteeism_data_34.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>49062</v>
+        <v>64953</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sr. João Felipe Moreira</t>
+          <t>Rebeca Caldeira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45091</v>
+        <v>45100</v>
       </c>
       <c r="G2" t="n">
-        <v>3995.58</v>
+        <v>6002.56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>36946</v>
+        <v>95566</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>João Barros</t>
+          <t>Dra. Nina Barbosa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,60 +519,60 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45102</v>
+        <v>45096</v>
       </c>
       <c r="G3" t="n">
-        <v>4911.51</v>
+        <v>11034.49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>45094</v>
+        <v>98413</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Daniel Cavalcanti</t>
+          <t>Srta. Valentina da Luz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45101</v>
+        <v>45087</v>
       </c>
       <c r="G4" t="n">
-        <v>6932.23</v>
+        <v>4826.78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>89515</v>
+        <v>31477</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>João Pedro Souza</t>
+          <t>Sarah da Luz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,56 +581,56 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45105</v>
+        <v>45091</v>
       </c>
       <c r="G5" t="n">
-        <v>3322.86</v>
+        <v>5372.71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>99683</v>
+        <v>9548</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>João Miguel Monteiro</t>
+          <t>Benjamin Rodrigues</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45093</v>
+        <v>45101</v>
       </c>
       <c r="G6" t="n">
-        <v>7889.89</v>
+        <v>5443.21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>21737</v>
+        <v>68230</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maria Sophia Duarte</t>
+          <t>Larissa Ribeiro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,85 +639,85 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45105</v>
+        <v>45102</v>
       </c>
       <c r="G7" t="n">
-        <v>2506.46</v>
+        <v>3042.38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>18697</v>
+        <v>44784</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maitê Fernandes</t>
+          <t>Carolina Cardoso</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45093</v>
+        <v>45104</v>
       </c>
       <c r="G8" t="n">
-        <v>9089.049999999999</v>
+        <v>4210.87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>72391</v>
+        <v>9413</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Valentina Barros</t>
+          <t>Sr. Vitor Gabriel Rezende</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45092</v>
+        <v>45106</v>
       </c>
       <c r="G9" t="n">
-        <v>4419.51</v>
+        <v>3281.66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>76352</v>
+        <v>5662</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Emilly Nunes</t>
+          <t>Dra. Maria Alice Costela</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45106</v>
+        <v>45097</v>
       </c>
       <c r="G10" t="n">
-        <v>7418.18</v>
+        <v>10092.54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>99880</v>
+        <v>32609</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. Arthur Dias</t>
+          <t>Marcela Silva</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45087</v>
+        <v>45094</v>
       </c>
       <c r="G11" t="n">
-        <v>10328.84</v>
+        <v>11298.75</v>
       </c>
     </row>
   </sheetData>
